--- a/第09组/项目计划表.xlsx
+++ b/第09组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>参考综合指导书，完成与位置信息相关功能的需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -166,9 +174,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -178,11 +183,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,171 +496,179 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/第09组/项目计划表.xlsx
+++ b/第09组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：任务完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,7 +596,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>

--- a/第09组/项目计划表.xlsx
+++ b/第09组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -33,9 +33,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>总结：</t>
-  </si>
-  <si>
     <t>日期：2018.10.08 第六周周一</t>
   </si>
   <si>
@@ -47,39 +44,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>吴培宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区梓恒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有事情缺席</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考综合指导书，完成系统管理员角色的需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考综合指导书，完成群主角色的需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考综合指导书，完成普通用户角色的需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考综合指导书，完成与位置信息相关功能的需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：任务完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区梓恒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>郑锐芝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>吴培宁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区梓恒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有事情缺席</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考综合指导书，完成系统管理员角色的需求分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考综合指导书，完成群主角色的需求分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考综合指导书，完成普通用户角色的需求分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考综合指导书，完成与位置信息相关功能的需求分析</t>
+    <t>郑锐芝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论并重新完善用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据讨论结果，确定并制作用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -145,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,13 +189,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +253,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +567,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+      <selection activeCell="A17" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -536,67 +603,67 @@
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -610,7 +677,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -631,38 +698,62 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -675,11 +766,12 @@
       <c r="D18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
